--- a/ability_code.xlsx
+++ b/ability_code.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Russell DKY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13918\Documents\Summer\Pokemon-Battle-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B870FE-07CD-453C-9DDC-01747D345610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7200"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -628,9 +629,6 @@
     <t>37.5% chance that it will attack for 2 turns, a 37.5% chance that it will attack for 3 turns, a 12.5% chance that it will attack for 4 turns, and a 12.5% chance that it will attack for 5 turns</t>
   </si>
   <si>
-    <t>user receives recoil damage equal to 25% of the damage done to the opponent</t>
-  </si>
-  <si>
     <t>inflicts damage for 3-4 turns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,10 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inflicts damage and the user receives recoil damage equal to 33% of the damage done to the target.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hitting the target twice per use. The second strike has a 20% chance of poisoning the target, unless the target is Poison-type.</t>
   </si>
   <si>
@@ -655,28 +649,12 @@
     <t>Disable now lasts 4 turns. Its accuracy is changed from 80% to 100% and it can now be reflected with Magic Coat.</t>
   </si>
   <si>
-    <t>Acid now has a 10% chance of lowering the target's Special Defense by one stage</t>
-  </si>
-  <si>
-    <t>the user receives recoil damage equal to 25% of the damage done to the target</t>
-  </si>
-  <si>
-    <t>Absorb inflicts damage, and up to 50% of the damage dealt to the target is restored to the user as HP</t>
-  </si>
-  <si>
-    <t>inflicts damage, and up to 50% of the damage dealt to the target is restored to the user as HP</t>
-  </si>
-  <si>
     <t>has an increased critical hit ratio.</t>
   </si>
   <si>
     <t>a 37.5% chance that it will attack for 2 turns, a 37.5% chance that it will attack for 3 turns, a 12.5% chance that it will attack for 4 turns, and a 12.5% chance that it will attack for 5 turns</t>
   </si>
   <si>
-    <t>acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>has a priority of +1</t>
   </si>
   <si>
@@ -733,20 +711,6 @@
     <t>has a 33.2% chance of lowering the target's Speed stat by one stage.</t>
   </si>
   <si>
-    <t>no longer fails if the difference between the user's maximum HP and current HP is 255 modulo 256</t>
-  </si>
-  <si>
-    <t>if missed, crash damage is equal to half of the user's max HP, rounded down.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only works if the target is asleep,cannot be used if the user is under the effects of Heal Block.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up to 50% of the damage dealt to the target is restored to the user as HP</t>
-  </si>
-  <si>
     <t>Pokémon with Insomnia or Vital Spirit as their Ability are unaffected by Lovely Kiss. Pokémon under the effect of Sweet Veil are also unaffected by Lovely Kiss</t>
   </si>
   <si>
@@ -757,15 +721,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>has a 33.2% chance of lowering the target's Speed stat by one stage</t>
-  </si>
-  <si>
     <t>Grass-type Pokémon, Pokémon with Overcoat, and Pokémon holding the Safety Goggles are now immune to Spore. Pokémon under the effect of Sweet Veil are also unaffected by Spore</t>
   </si>
   <si>
-    <t>inflicts a random amount of damage, varying between 1 damage and 1.5× the user's level.</t>
-  </si>
-  <si>
     <t>deals damage and has an increased critical hit ratio. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,9 +738,6 @@
     <t>has a 10% chance of causing the target to flinch.</t>
   </si>
   <si>
-    <t>changes the user's current type(s) to the target's current type(s).</t>
-  </si>
-  <si>
     <t>has an increased critical hit ratio</t>
   </si>
   <si>
@@ -793,20 +748,9 @@
     <t>pass</t>
   </si>
   <si>
-    <t>After the player selects the move, the game will simply show a dipping animation and then the message, "pass!"</t>
-  </si>
-  <si>
     <t>bypasses accuracy checks to always hit,</t>
   </si>
   <si>
-    <t>int(pkmn2[1]) = int(pkmn2[1])/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(pkmn1[11]) += 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>if ramdom.random()&lt;0.1:\n\tpkmn2[16] = "burn"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -947,18 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pkmn2[16] = "paralyze"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkmn2[16] = "poison"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkmn2[16] = "sleep"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Physical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,23 +899,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if ramdom.random()&lt;0.2:\n\tpkmn2[16] = "confuse"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkmn1[12] = int(pkmn1[12])+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkmn2[9] = int(pkmn2[9]) -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fail?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkmn1[1] = 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1000,14 +916,86 @@
   </si>
   <si>
     <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if dmg == 0:\n\tpkmn1[1] = int(int(pkmn1[1]) - dmg / 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if not pkmn2[16] == "sleep":\n\tdmg = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[1] = int(int(pkmn1[1]) + dmg * 0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if random.random() &lt; 0.1:\n\tpkmn2[15] = int(pkmn2[15]) - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if random.random() &lt; 0.2:\n\tpkmn2[16] = "confused"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn2[18] = int(pkmn2[18]) - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg = int((random.random() / 2 + 1) * int(pkmn1[1]))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print("No Effect")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[12] = int(pkmn[12]) + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[11] = int(pkmn[11]) + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[17] = pkmn2[17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg = (int(pkmn2[1]) * 0.5)\nif dmg == 0:\n\tdmg == 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv1[3] = (int(pkmn1[7]) - int(pkmn2[7]) + 30) / 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[1] = int(int(pkmn1[1]) + dmg / 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[1] = int(int(pkmn1[1]) - dmg * 0.25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if random.random() &lt; 0.1:\n\tpkmn2[14] = int(pkmn2[14]) - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[1] = int(int(pkmn1[1]) - dmg / 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,13 +1026,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1068,13 +1049,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,16 +1335,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1371,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1402,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1414,13 +1394,13 @@
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1443,13 +1423,13 @@
         <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1476,7 +1456,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1503,7 +1483,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1526,13 +1506,13 @@
         <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1555,13 +1535,13 @@
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1584,13 +1564,13 @@
         <v>75</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1613,13 +1593,13 @@
         <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1642,13 +1622,13 @@
         <v>75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1671,13 +1651,13 @@
         <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1700,13 +1680,13 @@
         <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1732,10 +1712,10 @@
         <v>27</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1762,7 +1742,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1785,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1814,13 +1794,13 @@
         <v>50</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1843,13 +1823,13 @@
         <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1872,13 +1852,13 @@
         <v>60</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1905,7 +1885,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1928,13 +1908,13 @@
         <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1957,11 +1937,11 @@
         <v>15</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1984,13 +1964,13 @@
         <v>80</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2013,13 +1993,13 @@
         <v>45</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2046,7 +2026,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2073,7 +2053,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2096,13 +2076,13 @@
         <v>120</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2125,13 +2105,13 @@
         <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2154,13 +2134,13 @@
         <v>60</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2183,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2212,13 +2192,13 @@
         <v>70</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2241,13 +2221,13 @@
         <v>65</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2274,7 +2254,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2301,7 +2281,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2324,13 +2304,13 @@
         <v>40</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2353,13 +2333,13 @@
         <v>85</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2386,7 +2366,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2409,11 +2389,13 @@
         <v>90</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
+        <v>291</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2436,11 +2418,11 @@
         <v>120</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2463,11 +2445,13 @@
         <v>120</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
+        <v>293</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2490,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2519,13 +2503,13 @@
         <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2548,11 +2532,11 @@
         <v>25</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2575,11 +2559,11 @@
         <v>25</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2602,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2631,13 +2615,13 @@
         <v>60</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2660,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2689,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2718,11 +2702,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2745,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2774,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2803,11 +2787,11 @@
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2830,11 +2814,13 @@
         <v>40</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9">
+        <v>275</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2857,13 +2843,13 @@
         <v>40</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2886,13 +2872,13 @@
         <v>90</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2915,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2944,13 +2930,13 @@
         <v>40</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2973,13 +2959,13 @@
         <v>110</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3002,13 +2988,13 @@
         <v>90</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3031,13 +3017,13 @@
         <v>90</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3060,13 +3046,13 @@
         <v>110</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3089,13 +3075,13 @@
         <v>65</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3118,13 +3104,13 @@
         <v>65</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3147,13 +3133,13 @@
         <v>65</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3176,13 +3162,13 @@
         <v>150</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3205,13 +3191,13 @@
         <v>35</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3234,13 +3220,13 @@
         <v>80</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3263,11 +3249,13 @@
         <v>80</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9">
+        <v>291</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3290,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3319,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3348,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3377,13 +3365,13 @@
         <v>80</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3406,11 +3394,13 @@
         <v>40</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9">
+        <v>290</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3433,11 +3423,13 @@
         <v>75</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9">
+        <v>290</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3460,13 +3452,13 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3489,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3518,11 +3510,11 @@
         <v>55</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3545,13 +3537,13 @@
         <v>200</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3574,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3603,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3632,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="H80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3661,11 +3653,11 @@
         <v>120</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3688,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3717,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3746,11 +3738,11 @@
         <v>35</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3773,13 +3765,13 @@
         <v>40</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3802,13 +3794,13 @@
         <v>90</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3831,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3860,13 +3852,13 @@
         <v>110</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3889,13 +3881,13 @@
         <v>50</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3918,13 +3910,13 @@
         <v>100</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3947,11 +3939,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9">
+        <v>289</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3974,13 +3968,13 @@
         <v>80</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4003,11 +3997,11 @@
         <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4030,13 +4024,13 @@
         <v>50</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4059,13 +4053,13 @@
         <v>90</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4088,13 +4082,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4117,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4146,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4175,11 +4169,11 @@
         <v>40</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4202,11 +4196,11 @@
         <v>20</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4229,11 +4223,11 @@
         <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4256,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4285,11 +4279,11 @@
         <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4312,13 +4306,13 @@
         <v>0</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4341,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4370,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4397,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4426,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4455,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4484,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4513,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4542,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -4571,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4600,11 +4594,11 @@
         <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -4627,11 +4621,11 @@
         <v>0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4654,11 +4648,11 @@
         <v>0</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -4681,11 +4675,11 @@
         <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4708,11 +4702,11 @@
         <v>0</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4735,11 +4729,11 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4762,11 +4756,11 @@
         <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -4789,13 +4783,13 @@
         <v>200</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>272</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4818,13 +4812,13 @@
         <v>100</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4847,13 +4841,13 @@
         <v>30</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4876,13 +4870,13 @@
         <v>30</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4905,13 +4899,13 @@
         <v>65</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4934,13 +4928,13 @@
         <v>65</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4963,13 +4957,13 @@
         <v>110</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4992,13 +4986,13 @@
         <v>80</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5021,11 +5015,11 @@
         <v>35</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5048,11 +5042,11 @@
         <v>60</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5075,11 +5069,11 @@
         <v>130</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5102,11 +5096,11 @@
         <v>20</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5129,11 +5123,11 @@
         <v>10</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5156,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5185,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5214,11 +5208,13 @@
         <v>0</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:12">
+        <v>275</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5241,11 +5237,13 @@
         <v>130</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:12">
+        <v>276</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5267,14 +5265,14 @@
       <c r="G138" s="1">
         <v>0</v>
       </c>
-      <c r="H138" s="2" t="s">
-        <v>246</v>
+      <c r="H138" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5297,11 +5295,13 @@
         <v>100</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:12">
+        <v>277</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5323,14 +5323,14 @@
       <c r="G140" s="1">
         <v>0</v>
       </c>
-      <c r="H140" s="2" t="s">
-        <v>246</v>
+      <c r="H140" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5353,11 +5353,11 @@
         <v>15</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5380,11 +5380,13 @@
         <v>80</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:12">
+        <v>278</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5406,17 +5408,17 @@
       <c r="G143" s="1">
         <v>0</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="H143" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="L143" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5439,11 +5441,11 @@
         <v>200</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -5466,11 +5468,11 @@
         <v>0</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -5493,11 +5495,13 @@
         <v>40</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="1:9">
+        <v>275</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -5519,14 +5523,14 @@
       <c r="G147" s="1">
         <v>70</v>
       </c>
-      <c r="H147" s="2" t="s">
-        <v>246</v>
+      <c r="H147" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -5549,11 +5553,11 @@
         <v>0</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -5575,14 +5579,14 @@
       <c r="G149" s="1">
         <v>0</v>
       </c>
-      <c r="H149" s="2" t="s">
-        <v>246</v>
+      <c r="H149" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -5605,11 +5609,13 @@
         <v>0</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="1:9">
+        <v>282</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -5631,12 +5637,14 @@
       <c r="G151" s="1">
         <v>0</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="H151" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -5659,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>284</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -5688,11 +5696,11 @@
         <v>100</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -5714,14 +5722,14 @@
       <c r="G154" s="1">
         <v>250</v>
       </c>
-      <c r="H154" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="H154" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -5744,11 +5752,11 @@
         <v>18</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -5771,11 +5779,11 @@
         <v>50</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -5798,11 +5806,11 @@
         <v>0</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -5824,14 +5832,14 @@
       <c r="G158" s="1">
         <v>75</v>
       </c>
-      <c r="H158" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="H158" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -5854,11 +5862,11 @@
         <v>80</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -5881,11 +5889,13 @@
         <v>0</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="1:9">
+        <v>286</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -5908,11 +5918,13 @@
         <v>0</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="1:9">
+        <v>287</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -5934,14 +5946,14 @@
       <c r="G162" s="1">
         <v>80</v>
       </c>
-      <c r="H162" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="H162" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -5963,14 +5975,14 @@
       <c r="G163" s="1">
         <v>0</v>
       </c>
-      <c r="H163" s="2" t="s">
-        <v>246</v>
+      <c r="H163" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -5993,11 +6005,11 @@
         <v>70</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6020,12 +6032,13 @@
         <v>0</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="I165" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>